--- a/taller 3/Taller Arquitectura-20240526/[3] Planilla de seguimiento.xlsx
+++ b/taller 3/Taller Arquitectura-20240526/[3] Planilla de seguimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\UBA\Materias\Trabajos-Grupales-Sistemas-Digitales\taller 3\Taller Arquitectura-20240526\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FB58F-287A-4E81-8AFA-9E26362EEF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C20493-7E6B-4AF9-A401-174FCAD2F4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45315" yWindow="0" windowWidth="12390" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilla para seguimiento" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>A</t>
   </si>
@@ -220,6 +220,9 @@
   <si>
     <t>LW x12 0(x11)</t>
   </si>
+  <si>
+    <t>0x7ffffff0</t>
+  </si>
 </sst>
 </file>
 
@@ -387,7 +390,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,12 +403,8 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,8 +713,8 @@
   </sheetPr>
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,11 +922,11 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
       <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
@@ -963,15 +966,17 @@
         <v>1</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="17">
+      <c r="E6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="13">
         <v>400593</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="6" t="s">
         <v>52</v>
       </c>
@@ -1011,12 +1016,12 @@
       <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
       <c r="K7" s="9"/>
       <c r="L7" s="6" t="s">
         <v>18</v>
@@ -1053,15 +1058,17 @@
         <v>2</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="6" t="s">
         <v>53</v>
       </c>
@@ -1101,12 +1108,12 @@
       <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="9"/>
       <c r="L9" s="6" t="s">
         <v>22</v>
@@ -1143,15 +1150,17 @@
         <v>3</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="17">
+      <c r="E10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="13">
         <v>400693</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="6" t="s">
         <v>57</v>
       </c>
@@ -1191,12 +1200,12 @@
       <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
       <c r="K11" s="9"/>
       <c r="L11" s="6" t="s">
         <v>26</v>
@@ -1233,15 +1242,17 @@
         <v>4</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18" t="s">
+      <c r="E12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="6" t="s">
         <v>58</v>
       </c>
@@ -1281,12 +1292,12 @@
       <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="9"/>
       <c r="L13" s="6" t="s">
         <v>30</v>
@@ -1323,15 +1334,17 @@
         <v>5</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="6" t="s">
         <v>59</v>
       </c>
@@ -1371,12 +1384,12 @@
       <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="9"/>
       <c r="L15" s="6" t="s">
         <v>34</v>
@@ -1413,15 +1426,17 @@
         <v>6</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="6" t="s">
         <v>60</v>
       </c>
@@ -1461,12 +1476,12 @@
       <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="9"/>
       <c r="L17" s="6" t="s">
         <v>38</v>
@@ -1503,15 +1518,17 @@
         <v>7</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="17">
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="13">
         <v>400593</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1551,12 +1568,12 @@
       <c r="D19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="9"/>
       <c r="L19" s="6" t="s">
         <v>42</v>
@@ -1593,15 +1610,17 @@
         <v>8</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="18" t="s">
+      <c r="E20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="6" t="s">
         <v>53</v>
       </c>
@@ -1637,12 +1656,12 @@
       <c r="D21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
       <c r="K21" s="9"/>
       <c r="L21" s="6" t="s">
         <v>45</v>
@@ -1675,15 +1694,17 @@
         <v>9</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="17">
+      <c r="E22" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="13">
         <v>400693</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="6" t="s">
         <v>57</v>
       </c>
@@ -1719,12 +1740,12 @@
       <c r="D23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
       <c r="K23" s="9"/>
       <c r="L23" s="6" t="s">
         <v>47</v>
@@ -1757,15 +1778,17 @@
         <v>10</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="18" t="s">
+      <c r="E24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="6" t="s">
         <v>58</v>
       </c>
@@ -1797,12 +1820,12 @@
       <c r="D25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
       <c r="K25" s="9"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1831,15 +1854,17 @@
         <v>11</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="6" t="s">
         <v>59</v>
       </c>
@@ -1871,12 +1896,12 @@
       <c r="D27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
       <c r="K27" s="9"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1905,15 +1930,17 @@
         <v>12</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="18" t="s">
+      <c r="E28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="6" t="s">
         <v>60</v>
       </c>
@@ -1945,12 +1972,12 @@
       <c r="D29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
       <c r="K29" s="9"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -1981,9 +2008,9 @@
       <c r="D30" s="3"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="6"/>
       <c r="K30" s="9"/>
       <c r="L30" s="2"/>
@@ -2013,12 +2040,12 @@
       <c r="D31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
       <c r="K31" s="9"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -2049,9 +2076,9 @@
       <c r="D32" s="3"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="6"/>
       <c r="K32" s="9"/>
       <c r="L32" s="2"/>
@@ -2081,12 +2108,12 @@
       <c r="D33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
       <c r="K33" s="9"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -2117,9 +2144,9 @@
       <c r="D34" s="3"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="6"/>
       <c r="K34" s="9"/>
       <c r="L34" s="2"/>
@@ -2149,12 +2176,12 @@
       <c r="D35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
       <c r="K35" s="9"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -33058,37 +33085,37 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="E29:J29"/>
     <mergeCell ref="E35:J35"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="E31:J31"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="E9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
